--- a/biology/Zoologie/Cabot-Caboche/Cabot-Caboche.xlsx
+++ b/biology/Zoologie/Cabot-Caboche/Cabot-Caboche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cabot-Caboche est un roman pour la jeunesse de Daniel Pennac, paru en 1982.
 </t>
@@ -511,7 +523,9 @@
           <t>Quatrième de couverture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Courageux, Le Chien ! Pas joli, joli, mais un sacré cabot ! Comme il se bagarre pour vivre ! Ce qu’il cherche ? Une maitresse. Une vraie, qui l’aime pour de bon. Pomme lui plaît beaucoup, au Chien. Un grand rire, des cheveux comme un soleil... Hélas, elle est tellement capricieuse ! Une vraie Caboche, cette Pomme. Comment le chien va-t-il l’apprivoiser ?
 </t>
@@ -542,7 +556,9 @@
           <t>Ni dresseur, ni dressé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme un prolongement du roman, l'auteur propose une réflexion sur le fait de posséder un chien et ce qui en découle. Il s'agit d'un véritable témoignage, il y raconte notamment l'amitié existant entre ces animaux et lui. Et même s'il n'est pas un « spécialiste des chiens », il formule néanmoins cette recommandation, qui sert de conclusion : « Quand on choisit de vivre avec un chien, c'est pour la vie. On ne l'abandonne pas. Jamais. Mettez-vous bien ça dans le cœur avant d'en adopter un. »    
  Portail de la littérature française   Portail des canidés   Portail des années 1980   Portail de la littérature d’enfance et de jeunesse                  </t>
